--- a/BankAccountStartProject/UserStories.xlsx
+++ b/BankAccountStartProject/UserStories.xlsx
@@ -280,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,6 +299,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -384,11 +388,11 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.63"/>
@@ -507,62 +511,64 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="3" t="n">
         <v>2.1</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="3" t="n">
         <v>3.1</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
@@ -573,50 +579,50 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="3" t="n">
         <v>4.1</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="3" t="n">
         <v>4.2</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="3" t="n">
         <v>4.3</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
